--- a/biology/Botanique/Square_Adolphe-et-Jean-Chérioux/Square_Adolphe-et-Jean-Chérioux.xlsx
+++ b/biology/Botanique/Square_Adolphe-et-Jean-Chérioux/Square_Adolphe-et-Jean-Chérioux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Adolphe-et-Jean-Ch%C3%A9rioux</t>
+          <t>Square_Adolphe-et-Jean-Chérioux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Adolphe-et-Jean-Chérioux est un square du 15e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Adolphe-et-Jean-Ch%C3%A9rioux</t>
+          <t>Square_Adolphe-et-Jean-Chérioux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Adolphe-et-Jean-Chérioux occupe tout l’espace entre la rue de Vaugirard et la rue Blomet, au niveau de la place Adolphe-Chérioux, juste à côté de la mairie du 15e arrondissement de Paris.
 Il forme un rectangle très allongé.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Adolphe-et-Jean-Ch%C3%A9rioux</t>
+          <t>Square_Adolphe-et-Jean-Chérioux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage au conseiller municipal Adolphe Chérioux (1857-1934), élu de l’arrondissement et à son petit-fils et homme politique Jean Chérioux (1928-2016).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Adolphe-et-Jean-Ch%C3%A9rioux</t>
+          <t>Square_Adolphe-et-Jean-Chérioux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1896
-Ce square, œuvre de l’architecte Jean-Camille Formigé (1845-1926). 
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce square, œuvre de l’architecte Jean-Camille Formigé (1845-1926). 
 Il s’orne de deux statues en pierre :
 la Maternité, d’Alphonse-Amédée Cordonnier (1848-1930) ;
-l’Histoire inscrivant le centenaire d’Émile-François Chatrousse (1829-1896).
-2016
-Le square est renommé « square Adolphe-et-Jean-Chérioux », pour rendre également hommage à son petit-fils Jean Chérioux (1928-2016), mort récemment[1].
-</t>
+l’Histoire inscrivant le centenaire d’Émile-François Chatrousse (1829-1896).</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_Adolphe-et-Jean-Ch%C3%A9rioux</t>
+          <t>Square_Adolphe-et-Jean-Chérioux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,10 +628,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est renommé « square Adolphe-et-Jean-Chérioux », pour rendre également hommage à son petit-fils Jean Chérioux (1928-2016), mort récemment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Square_Adolphe-et-Jean-Chérioux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Square_Adolphe-et-Jean-Ch%C3%A9rioux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est équipé d’un kiosque à musique.
 </t>
